--- a/Andrew Stankevich Contest刷题列表.xlsx
+++ b/Andrew Stankevich Contest刷题列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>场次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASC01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Chinese Girls' Amusement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,7 +108,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gym100199</t>
+    <t>事实上是找最大的整数k满足gcd(n,k)=1.所以分类讨论之.
+当n=2a+1时,k=a;
+当n=4a时,k=2a-1;
+当n=4a+2时,k=2a-1;
+然后写个高精度.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASC01
+gym100199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源汇有上下界最大流模板题.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给n个点,m根pipe,每根pipe用来流淌液体的,单向.每时每刻每根pipe流进来的物质要等于流出去的物质,要使得m条pipe组成一个循环体,里面流淌物质.并且满足每根pipe一定的流量限制,范围为[Li,Ri].即要满足每时刻流进来的不能超过Ri,同时最小不能低于Li.
+求一个流量的方案.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accepted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,10 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,9 +508,10 @@
     <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="30.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,89 +525,116 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Andrew Stankevich Contest刷题列表.xlsx
+++ b/Andrew Stankevich Contest刷题列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>场次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,11 +138,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Accepted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>给一颗树,将其中尽可能多的点涂黑,满足:
+(1)如果某个点涂黑,那么他的父亲不能涂黑.
+(2)某个点的所有子节点中,只能有一个点涂黑.
+求方案.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f[i][0/1]表示以x为根的子树,x节点被没被选中的最大值.
+f[i][0]=max(f[v][1]-f[v][0])+sigma(f[v][0])
+f[i][1]=sigma(f[v][0])
+开一个数组记录转移.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给一个无向图,定义矩阵A={a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i,j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}为N*M的01矩阵,a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i,j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=1当且进当点i为边j的某个端点.
+求A^T*A中数的总和.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上就是求每个点连到的边数的平方的和.随便记录一下就可以了.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +228,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -498,7 +582,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -562,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -571,7 +655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -579,10 +663,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -590,7 +680,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">

--- a/Andrew Stankevich Contest刷题列表.xlsx
+++ b/Andrew Stankevich Contest刷题列表.xlsx
@@ -1,111 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>场次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>题号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>题目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>做题状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目大意</t>
   </si>
   <si>
     <t>算法简述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>ASC01
+gym100199</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t xml:space="preserve"> Chinese Girls' Amusement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reactor Cooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Year Bonus Grant </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Matrix Multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nice Patterns Strike Back</t>
-  </si>
-  <si>
-    <t>Get Out!</t>
-  </si>
-  <si>
-    <t>Beautiful People</t>
-  </si>
-  <si>
-    <t>Cracking' RSA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目大意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accepted</t>
   </si>
   <si>
     <t>求最大的整数k(1&lt;=k&lt;=n/2),使在模n意义下,{1,2,3，…,n}与{1,k+1,2k+1,…,(n-1)k+1}相等.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事实上是找最大的整数k满足gcd(n,k)=1.所以分类讨论之.
@@ -113,54 +60,52 @@
 当n=4a时,k=2a-1;
 当n=4a+2时,k=2a-1;
 然后写个高精度.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASC01
-gym100199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无源汇有上下界最大流模板题.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Reactor Cooling</t>
   </si>
   <si>
     <t>给n个点,m根pipe,每根pipe用来流淌液体的,单向.每时每刻每根pipe流进来的物质要等于流出去的物质,要使得m条pipe组成一个循环体,里面流淌物质.并且满足每根pipe一定的流量限制,范围为[Li,Ri].即要满足每时刻流进来的不能超过Ri,同时最小不能低于Li.
 求一个流量的方案.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accepted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无源汇有上下界最大流模板题.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Year Bonus Grant </t>
   </si>
   <si>
     <t>给一颗树,将其中尽可能多的点涂黑,满足:
 (1)如果某个点涂黑,那么他的父亲不能涂黑.
 (2)某个点的所有子节点中,只能有一个点涂黑.
 求方案.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f[i][0/1]表示以x为根的子树,x节点被没被选中的最大值.
 f[i][0]=max(f[v][1]-f[v][0])+sigma(f[v][0])
 f[i][1]=sigma(f[v][0])
 开一个数组记录转移.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matrix Multiplication</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>给一个无向图,定义矩阵A={a</t>
     </r>
     <r>
@@ -168,9 +113,7 @@
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>i,j</t>
     </r>
@@ -179,8 +122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>}为N*M的01矩阵,a</t>
     </r>
@@ -189,9 +131,7 @@
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>i,j</t>
     </r>
@@ -200,65 +140,446 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>=1当且进当点i为边j的某个端点.
 求A^T*A中数的总和.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际上就是求每个点连到的边数的平方的和.随便记录一下就可以了.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice Patterns Strike Back</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>将一个N*M的方阵的每个格子染成黑色或白色,要求没有2*2的相同颜色的格子,求方案数mod P的值.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注意,矩阵在模意义下不存在欧拉定理!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一个显然的dp方程式f[i][m]=sigma{f[i-1][m']},m与m'不存在2*2的相同颜色.
+然后预处理出所有的可以的转移,最多2^5*2^5=32*32,列出矩阵,然后矩阵乘法去求解.</t>
+    </r>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Get Out!</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Beautiful People</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Cracking' RSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,29 +587,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -578,191 +1186,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q6:Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="30.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:6">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Andrew Stankevich Contest刷题列表.xlsx
+++ b/Andrew Stankevich Contest刷题列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>场次</t>
   </si>
@@ -60,6 +60,9 @@
 当n=4a时,k=2a-1;
 当n=4a+2时,k=2a-1;
 然后写个高精度.</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/gym/100199</t>
   </si>
   <si>
     <t>B</t>
@@ -169,13 +172,35 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>一个显然的dp方程式f[i][m]=sigma{f[i-1][m']},m与m'不存在2*2的相同颜色.
+      <t>一个显然的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方程式f[i][m]=sigma{f[i-1][m']},m与m'不存在2*2的相同颜色.
 然后预处理出所有的可以的转移,最多2^5*2^5=32*32,列出矩阵,然后矩阵乘法去求解.</t>
     </r>
   </si>
   <si>
+    <t>特殊矩阵是否存在欧拉定理可以现场对拍测试.
+考虑拉格朗日定理(群论),如果是有限域,对于n*n的可逆矩阵矩阵A,
+A^{n*n的可逆矩阵个数}=A</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -185,16 +210,81 @@
     <t>No</t>
   </si>
   <si>
+    <t>给出n个圆心及半径,再给出一个特殊圆心及半径,问这个圆能不能逃出这n个圆的包围.</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
     <t>Beautiful People</t>
   </si>
   <si>
+    <t>有N个人,每个人有两个值:S和B.如果两个人的S和B的大小关系不同,那么他们就互相憎恨.
+求一个集合,使集合中的人两两不相憎恨且集合中的人数最多.</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>Cracking' RSA</t>
+  </si>
+  <si>
+    <t>给出了m个数,这m个数的质因子都是前t个质数构成的.问有多少个这m个数的非空子集，使得子集中所有元素的乘积是完全平方数.</t>
+  </si>
+  <si>
+    <t>ASC02
+gym100197</t>
+  </si>
+  <si>
+    <t>Non Absorbing DFA</t>
+  </si>
+  <si>
+    <t>给出一个自动机,给出所有的转移,其中还有一个矩阵,如果(u,c)=0,直接转移,字符c被接收,否则也会转移但是字符c不会被转移,也就是下一个字符依旧是字符c.</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/gym/100197</t>
+  </si>
+  <si>
+    <t>The Towers of Hanoi Revisited</t>
+  </si>
+  <si>
+    <t>n个圆盘,m个柱子的汉诺塔输出步骤.</t>
+  </si>
+  <si>
+    <t>首先存在一个DP,f[i][j]表示有j个柱子可以用,将i个盘子从一个柱子转移到另一个柱子的步数.
+发现一定是将这些盘子的一部分先利用j个柱子转移到另一个柱子上,再将剩下的利用j-1个柱子转移到目标柱子上,然后再将先前的一部分盖上.
+所以f[i][j]=min{2*f[k][j]+f[i-k][j-1]}(1&lt;=k&lt;=n).
+记录转移,然后DFS输出方案.</t>
+  </si>
+  <si>
+    <t>DFS输出方案的过程很难想.</t>
+  </si>
+  <si>
+    <t>Hyperhuffman</t>
+  </si>
+  <si>
+    <t>给出一个n,表示一篇文章中的不同单词的个数为n,然后接下来给出n个整数,表示各个单词出现的频率,要你求对这篇文章的所有单词求哈夫曼编码后的文章的长度.</t>
+  </si>
+  <si>
+    <t>简单的哈夫曼树.用堆来实现一下即可.</t>
+  </si>
+  <si>
+    <t>Little Jumper</t>
+  </si>
+  <si>
+    <t>Quantization Problem</t>
+  </si>
+  <si>
+    <t>给定一个n和一个数组S,然后给你一个m*s(m&lt;=s)的矩阵A,然后要你求出一个数列k,满足∑|A[k[i-1]%m][k[i]]-S[i]|最小,输出最小值和其中一组解.</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>Robbers</t>
+  </si>
+  <si>
+    <t>Tickets</t>
   </si>
 </sst>
 </file>
@@ -202,12 +292,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -223,6 +321,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,11 +343,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,41 +418,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,61 +442,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +472,11 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,6 +489,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,25 +549,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,133 +673,58 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,8 +746,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,21 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -652,49 +795,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,145 +813,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,6 +1009,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1188,20 +1310,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q6:Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="30.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="5" max="6" width="32.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1223,7 +1345,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1247,108 +1369,247 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="121.5" spans="2:6">
+    <row r="3" ht="121.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="94.5" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="54" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" ht="108" spans="2:6">
+    <row r="6" ht="121.5" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="135" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="2:6">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="2:5">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="16" spans="2:4">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A:G">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(A1),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://codeforces.com/gym/100199"/>
+    <hyperlink ref="A11" r:id="rId2" display="http://codeforces.com/gym/100197"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
